--- a/files/xlsx/interface_manage.xlsx
+++ b/files/xlsx/interface_manage.xlsx
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>accessToken: 727634cf5787e066d3baecf185c5030afa03eb2b, code: 1</t>
-  </si>
-  <si>
-    <t>/passport/login_validate.do</t>
   </si>
   <si>
     <t>登录状态监测</t>
@@ -585,12 +582,16 @@
     <t>{account: None, type: -1, status: -1, manual: None, offset: 0, count: 15, start: 1545235200000, end: 1545321599000, payMethod: None}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>/passport/login_validate.do</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,6 +626,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -654,7 +662,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,6 +688,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -988,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1020,10 +1031,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15">
@@ -1046,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15">
@@ -1059,8 +1070,8 @@
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
+      <c r="D3" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>5</v>
@@ -1069,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15">
@@ -1077,10 +1088,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
@@ -1089,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15">
@@ -1097,10 +1108,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>5</v>
@@ -1109,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15">
@@ -1117,10 +1128,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>5</v>
@@ -1129,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
@@ -1137,10 +1148,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>5</v>
@@ -1149,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15">
@@ -1157,13 +1168,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>5</v>
@@ -1172,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28">
@@ -1180,13 +1191,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>5</v>
@@ -1195,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28">
@@ -1203,13 +1214,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
@@ -1218,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
@@ -1226,13 +1237,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>5</v>
@@ -1241,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
@@ -1249,13 +1260,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -1264,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15">
@@ -1272,13 +1283,13 @@
         <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="D13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>5</v>
@@ -1287,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15">
@@ -1295,13 +1306,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>5</v>
@@ -1310,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15">
@@ -1318,13 +1329,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="D15" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>5</v>
@@ -1333,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15">
@@ -1341,13 +1352,13 @@
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>5</v>
@@ -1356,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:16384" ht="28">
@@ -1364,13 +1375,13 @@
         <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -1379,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:16384" ht="15">
@@ -1387,13 +1398,13 @@
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="D18" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>5</v>
@@ -1402,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:16384" ht="15">
@@ -1410,13 +1421,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>5</v>
@@ -1425,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:16384" ht="15">
@@ -1433,13 +1444,13 @@
         <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>5</v>
@@ -1448,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:16384" ht="15">
@@ -1456,13 +1467,13 @@
         <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>5</v>
@@ -1471,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:16384" s="2" customFormat="1" ht="15">
@@ -1479,13 +1490,13 @@
         <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>5</v>
@@ -1494,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:16384" ht="15">
@@ -1502,13 +1513,13 @@
         <v>24</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>5</v>
@@ -1517,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:16384" s="3" customFormat="1" ht="15">
@@ -1525,13 +1536,13 @@
         <v>25</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>5</v>
@@ -1540,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -17925,13 +17936,13 @@
         <v>26</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="D25" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>5</v>
@@ -17940,7 +17951,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -34325,13 +34336,13 @@
         <v>27</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>5</v>
@@ -34340,7 +34351,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:16384" ht="15">
@@ -34348,13 +34359,13 @@
         <v>28</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>5</v>
@@ -34363,7 +34374,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:16384" ht="15">
@@ -34371,10 +34382,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>5</v>
@@ -34383,7 +34394,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:16384" ht="15">
@@ -34391,10 +34402,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>5</v>
@@ -34403,7 +34414,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:16384" ht="28">
@@ -34411,13 +34422,13 @@
         <v>31</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>5</v>
@@ -34426,7 +34437,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:16384" ht="28">
@@ -34434,13 +34445,13 @@
         <v>32</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>5</v>
@@ -34449,7 +34460,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:16384" s="3" customFormat="1" ht="15">
@@ -34457,13 +34468,13 @@
         <v>33</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>5</v>
@@ -34472,7 +34483,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -50857,13 +50868,13 @@
         <v>34</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>5</v>
@@ -50872,7 +50883,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15">
@@ -50880,13 +50891,13 @@
         <v>35</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>5</v>
@@ -50895,7 +50906,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28">
@@ -50903,13 +50914,13 @@
         <v>36</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>5</v>
@@ -50918,7 +50929,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15">
@@ -50926,13 +50937,13 @@
         <v>37</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>5</v>
@@ -50941,7 +50952,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15">
@@ -50949,13 +50960,13 @@
         <v>38</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>5</v>
@@ -50964,7 +50975,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="28">
@@ -50972,13 +50983,13 @@
         <v>39</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>5</v>
@@ -50987,7 +50998,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="28">
@@ -50995,13 +51006,13 @@
         <v>40</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>5</v>
@@ -51010,7 +51021,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15">
@@ -51018,13 +51029,13 @@
         <v>41</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>5</v>
@@ -51033,7 +51044,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15">
@@ -51041,13 +51052,13 @@
         <v>42</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>5</v>
@@ -51056,7 +51067,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15">
@@ -51064,13 +51075,13 @@
         <v>43</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>5</v>
@@ -51079,7 +51090,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="42">
@@ -51087,13 +51098,13 @@
         <v>44</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>5</v>
@@ -51102,7 +51113,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="42">
@@ -51110,13 +51121,13 @@
         <v>45</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>5</v>
@@ -51125,7 +51136,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15">
@@ -51133,13 +51144,13 @@
         <v>46</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>5</v>
@@ -51148,7 +51159,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="28">
@@ -51156,13 +51167,13 @@
         <v>47</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>5</v>
@@ -51171,7 +51182,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15">
@@ -51179,13 +51190,13 @@
         <v>48</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>5</v>
@@ -51194,7 +51205,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15">
@@ -51202,13 +51213,13 @@
         <v>49</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>5</v>
@@ -51217,7 +51228,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15">
@@ -51225,13 +51236,13 @@
         <v>50</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>5</v>
@@ -51240,7 +51251,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15">
@@ -51248,13 +51259,13 @@
         <v>51</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>5</v>
@@ -51263,7 +51274,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="28">
@@ -51271,13 +51282,13 @@
         <v>52</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>5</v>
@@ -51286,7 +51297,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15">
@@ -51294,13 +51305,13 @@
         <v>53</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="D52" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>5</v>
@@ -51309,7 +51320,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15">
@@ -51317,13 +51328,13 @@
         <v>54</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="D53" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>5</v>
@@ -51332,7 +51343,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15">
@@ -51340,13 +51351,13 @@
         <v>55</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>5</v>
@@ -51355,7 +51366,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15">
@@ -51363,13 +51374,13 @@
         <v>56</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="D55" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>5</v>
@@ -51378,7 +51389,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15">
@@ -51386,13 +51397,13 @@
         <v>57</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>5</v>
@@ -51401,7 +51412,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15">
@@ -51409,13 +51420,13 @@
         <v>58</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>5</v>
@@ -51424,7 +51435,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15">
@@ -51432,13 +51443,13 @@
         <v>59</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="D58" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>5</v>
@@ -51447,7 +51458,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="30">
@@ -51455,10 +51466,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>5</v>
@@ -51467,7 +51478,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15">
@@ -51475,13 +51486,13 @@
         <v>61</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>5</v>
@@ -51490,7 +51501,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15">
@@ -51498,13 +51509,13 @@
         <v>62</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="D61" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>5</v>
@@ -51513,7 +51524,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15">
@@ -51521,13 +51532,13 @@
         <v>63</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="D62" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>5</v>
@@ -51536,7 +51547,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15">
@@ -51544,13 +51555,13 @@
         <v>64</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="D63" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>5</v>
@@ -51559,7 +51570,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15">
@@ -51567,13 +51578,13 @@
         <v>65</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="D64" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>5</v>
@@ -51582,7 +51593,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15">
@@ -51590,13 +51601,13 @@
         <v>66</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="D65" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>5</v>
@@ -51605,7 +51616,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15">

--- a/files/xlsx/interface_manage.xlsx
+++ b/files/xlsx/interface_manage.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33500" yWindow="1260" windowWidth="39940" windowHeight="20760"/>
+    <workbookView xWindow="-38400" yWindow="840" windowWidth="38400" windowHeight="20760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="177">
   <si>
     <t>用例ID</t>
   </si>
@@ -586,12 +586,19 @@
     <t>/passport/login_validate.do</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>form格式</t>
+    <rPh sb="0" eb="1">
+      <t>gik</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,6 +611,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -611,18 +619,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF6A8759"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -632,6 +629,28 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -662,7 +681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -692,6 +711,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,7 +1022,7 @@
   <dimension ref="A1:XFD72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1014,7 +1036,7 @@
     <col min="7" max="7" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,8 +1058,11 @@
       <c r="G1" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -1060,7 +1085,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="4">
         <v>4</v>
       </c>
@@ -1079,11 +1104,14 @@
       <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="10" t="s">
         <v>151</v>
       </c>
+      <c r="H3" s="10" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="4">
         <v>5</v>
       </c>
@@ -1103,7 +1131,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="4">
         <v>6</v>
       </c>
@@ -1123,7 +1151,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="4">
         <v>7</v>
       </c>
@@ -1143,7 +1171,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7" s="4">
         <v>8</v>
       </c>
@@ -1163,7 +1191,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8" s="4">
         <v>9</v>
       </c>
@@ -1186,7 +1214,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28">
+    <row r="9" spans="1:8" ht="28">
       <c r="A9" s="4">
         <v>10</v>
       </c>
@@ -1209,7 +1237,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28">
+    <row r="10" spans="1:8" ht="28">
       <c r="A10" s="4">
         <v>11</v>
       </c>
@@ -1232,7 +1260,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:8" ht="15">
       <c r="A11" s="4">
         <v>12</v>
       </c>
@@ -1255,7 +1283,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="4">
         <v>13</v>
       </c>
@@ -1278,7 +1306,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="4">
         <v>14</v>
       </c>
@@ -1301,7 +1329,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:8" ht="15">
       <c r="A14" s="4">
         <v>15</v>
       </c>
@@ -1324,7 +1352,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15">
+    <row r="15" spans="1:8" ht="15">
       <c r="A15" s="4">
         <v>16</v>
       </c>
@@ -1347,7 +1375,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:8" ht="15">
       <c r="A16" s="4">
         <v>17</v>
       </c>

--- a/files/xlsx/interface_manage.xlsx
+++ b/files/xlsx/interface_manage.xlsx
@@ -372,7 +372,7 @@
     <t>新增会员信息</t>
   </si>
   <si>
-    <t>{'QQ': None,'account': 'aaa123','bankAccount': None,'bankAddress': None,'elevenPickFive': 2,'frequentLottery': 2,'level': 1,'levelType': None,'password': '111111','payee': None,'pcEggs': 2,'phone': None,'pk10': 2,'quickThree': 2,'receivingBank': None,'role': 0,'sixMark': 2,'three': 2,'username': None,'wechat': None}</t>
+    <t>{'QQ': None,'account': 'aaa123','bankAccount': None,'bankAddress': None,'elevenPickFive': 2,'frequentLottery': 2,'level': 1,'levelType': None,'password': '111111','payee': None,'pcEggs': 2,'phone': None,'pk10': 2,'quickThree': 2,'receivingBank': None,'role': 0,'sixMark': 2,'three': 2,'username': None,'wechat': None, 'name':'lil'}</t>
   </si>
   <si>
     <t>/member/add_share_user.do</t>
@@ -545,10 +545,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -581,13 +581,42 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,10 +630,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -616,41 +660,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -685,8 +699,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,21 +729,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -745,7 +745,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,121 +901,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,49 +925,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,8 +942,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,7 +952,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,6 +983,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,30 +1023,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1044,10 +1044,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1056,137 +1056,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,7 +1199,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1223,19 +1223,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1591,8 +1588,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1762,13 +1759,13 @@
       <c r="A8" s="11">
         <v>9</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -51853,13 +51850,13 @@
       <c r="A50" s="11">
         <v>51</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="13" t="s">
         <v>136</v>
       </c>
       <c r="E50" s="11" t="s">
@@ -51876,13 +51873,13 @@
       <c r="A51" s="11">
         <v>52</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="13" t="s">
         <v>136</v>
       </c>
       <c r="E51" s="11" t="s">
@@ -51896,25 +51893,25 @@
       </c>
     </row>
     <row r="52" s="4" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A52" s="15">
+      <c r="A52" s="14">
         <v>53</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="14">
         <v>0</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -51964,7 +51961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" ht="28.8" spans="1:7">
+    <row r="55" ht="15.6" spans="1:7">
       <c r="A55" s="5">
         <v>56</v>
       </c>
@@ -52076,7 +52073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" ht="28.8" spans="1:7">
+    <row r="60" ht="15.6" spans="1:7">
       <c r="A60" s="5">
         <v>61</v>
       </c>
